--- a/predictions полгода до/Прогнозы_ETS_HA4dt.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_HA4dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21275975.28187428</v>
+        <v>20438271.49042028</v>
       </c>
       <c r="C2" t="n">
-        <v>21083238.0675237</v>
+        <v>18063032.76703191</v>
       </c>
       <c r="D2" t="n">
-        <v>18788019.78329984</v>
+        <v>19382166.74515707</v>
       </c>
       <c r="E2" t="n">
-        <v>20110371.80333461</v>
+        <v>18600053.12933508</v>
       </c>
       <c r="F2" t="n">
-        <v>20496707.92164087</v>
+        <v>18782951.64187747</v>
       </c>
       <c r="G2" t="n">
-        <v>20335491.38356619</v>
+        <v>16476565.57000123</v>
       </c>
       <c r="H2" t="n">
-        <v>18070518.7921099</v>
+        <v>17861688.28930457</v>
       </c>
       <c r="I2" t="n">
-        <v>19421893.09336041</v>
+        <v>17142818.62802385</v>
       </c>
       <c r="J2" t="n">
-        <v>19836077.56724703</v>
+        <v>17386330.47724469</v>
       </c>
       <c r="K2" t="n">
-        <v>19701582.94337219</v>
+        <v>15138036.54413401</v>
       </c>
       <c r="L2" t="n">
-        <v>17462251.38829388</v>
+        <v>16578835.07294209</v>
       </c>
       <c r="M2" t="n">
-        <v>18838229.56865351</v>
+        <v>15913325.39856976</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11234693.94297307</v>
+        <v>9170054.083218714</v>
       </c>
       <c r="C3" t="n">
-        <v>11740964.08919214</v>
+        <v>8869343.324683405</v>
       </c>
       <c r="D3" t="n">
-        <v>12199286.25255322</v>
+        <v>8628565.245428281</v>
       </c>
       <c r="E3" t="n">
-        <v>12612865.0712292</v>
+        <v>8437036.485075627</v>
       </c>
       <c r="F3" t="n">
-        <v>12989380.88231587</v>
+        <v>8282710.574096781</v>
       </c>
       <c r="G3" t="n">
-        <v>13325849.27279802</v>
+        <v>8159468.51738586</v>
       </c>
       <c r="H3" t="n">
-        <v>13630801.46412381</v>
+        <v>8060665.399590245</v>
       </c>
       <c r="I3" t="n">
-        <v>13905851.98419637</v>
+        <v>7982716.608405197</v>
       </c>
       <c r="J3" t="n">
-        <v>14157244.93544748</v>
+        <v>7919254.672760439</v>
       </c>
       <c r="K3" t="n">
-        <v>14380698.6551998</v>
+        <v>7868703.796316787</v>
       </c>
       <c r="L3" t="n">
-        <v>14583572.65060712</v>
+        <v>7828053.622734986</v>
       </c>
       <c r="M3" t="n">
-        <v>14766423.12253833</v>
+        <v>7796627.186920989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5108227.152956281</v>
+        <v>14669352.62632793</v>
       </c>
       <c r="C4" t="n">
-        <v>5101527.224934774</v>
+        <v>17094200.90160606</v>
       </c>
       <c r="D4" t="n">
-        <v>5109352.96248022</v>
+        <v>19107063.25843574</v>
       </c>
       <c r="E4" t="n">
-        <v>5109959.741090131</v>
+        <v>20682234.01689599</v>
       </c>
       <c r="F4" t="n">
-        <v>5109867.882771269</v>
+        <v>21935645.57100799</v>
       </c>
       <c r="G4" t="n">
-        <v>5103133.412873444</v>
+        <v>22907902.21856938</v>
       </c>
       <c r="H4" t="n">
-        <v>5110925.335744095</v>
+        <v>23758557.94220109</v>
       </c>
       <c r="I4" t="n">
-        <v>5111499.01157114</v>
+        <v>24403856.71704507</v>
       </c>
       <c r="J4" t="n">
-        <v>5111374.74737406</v>
+        <v>24913285.33282603</v>
       </c>
       <c r="K4" t="n">
-        <v>5104608.553830901</v>
+        <v>25290287.3407379</v>
       </c>
       <c r="L4" t="n">
-        <v>5112369.420926226</v>
+        <v>25664684.71519411</v>
       </c>
       <c r="M4" t="n">
-        <v>5112912.694787452</v>
+        <v>25928933.09571789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3941432.778832043</v>
+        <v>24416281.09616228</v>
       </c>
       <c r="C5" t="n">
-        <v>5489022.137087964</v>
+        <v>20144430.27575296</v>
       </c>
       <c r="D5" t="n">
-        <v>7005700.85393421</v>
+        <v>23817656.81945723</v>
       </c>
       <c r="E5" t="n">
-        <v>8492029.423270624</v>
+        <v>26855760.97092355</v>
       </c>
       <c r="F5" t="n">
-        <v>9948498.405997286</v>
+        <v>28385360.43652384</v>
       </c>
       <c r="G5" t="n">
-        <v>11375937.21263723</v>
+        <v>24034111.67835743</v>
       </c>
       <c r="H5" t="n">
-        <v>12774868.57369548</v>
+        <v>27629528.57014611</v>
       </c>
       <c r="I5" t="n">
-        <v>14145804.91545913</v>
+        <v>30591379.58327845</v>
       </c>
       <c r="J5" t="n">
-        <v>15489189.69264168</v>
+        <v>32046251.28744252</v>
       </c>
       <c r="K5" t="n">
-        <v>16805806.15177578</v>
+        <v>27621769.6309158</v>
       </c>
       <c r="L5" t="n">
-        <v>18096131.78272687</v>
+        <v>31145418.58400034</v>
       </c>
       <c r="M5" t="n">
-        <v>19360634.67602483</v>
+        <v>34036937.31285656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10115504.51836774</v>
+        <v>2051774.716303521</v>
       </c>
       <c r="C6" t="n">
-        <v>10467675.71918581</v>
+        <v>3907856.611636223</v>
       </c>
       <c r="D6" t="n">
-        <v>9741473.1830981</v>
+        <v>1779784.044798851</v>
       </c>
       <c r="E6" t="n">
-        <v>10668764.05673686</v>
+        <v>3158308.752757932</v>
       </c>
       <c r="F6" t="n">
-        <v>11478748.88445956</v>
+        <v>2085038.418989212</v>
       </c>
       <c r="G6" t="n">
-        <v>11803641.3559681</v>
+        <v>3939372.547596156</v>
       </c>
       <c r="H6" t="n">
-        <v>11050705.94213735</v>
+        <v>1809644.04651952</v>
       </c>
       <c r="I6" t="n">
-        <v>11951798.86702582</v>
+        <v>3186599.827593592</v>
       </c>
       <c r="J6" t="n">
-        <v>12736109.9709796</v>
+        <v>2111843.002687643</v>
       </c>
       <c r="K6" t="n">
-        <v>13035842.45387814</v>
+        <v>3964768.744503476</v>
       </c>
       <c r="L6" t="n">
-        <v>12258250.50667682</v>
+        <v>1833705.857163986</v>
       </c>
       <c r="M6" t="n">
-        <v>13135180.27921741</v>
+        <v>3209397.364311512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2257007.818799672</v>
+        <v>8351120.102022166</v>
       </c>
       <c r="C7" t="n">
-        <v>3083495.276765761</v>
+        <v>8183883.628543923</v>
       </c>
       <c r="D7" t="n">
-        <v>2301369.042426731</v>
+        <v>8606156.031346496</v>
       </c>
       <c r="E7" t="n">
-        <v>2531116.603241496</v>
+        <v>8674104.682965713</v>
       </c>
       <c r="F7" t="n">
-        <v>2540841.227368462</v>
+        <v>8643529.042412819</v>
       </c>
       <c r="G7" t="n">
-        <v>3342695.77602263</v>
+        <v>8470434.739112921</v>
       </c>
       <c r="H7" t="n">
-        <v>2538074.436459749</v>
+        <v>8886966.662029086</v>
       </c>
       <c r="I7" t="n">
-        <v>2747279.163595213</v>
+        <v>8949289.832825273</v>
       </c>
       <c r="J7" t="n">
-        <v>2738243.794764778</v>
+        <v>8913201.406735897</v>
       </c>
       <c r="K7" t="n">
-        <v>3522966.464669601</v>
+        <v>8734704.755560804</v>
       </c>
       <c r="L7" t="n">
-        <v>2702700.062224835</v>
+        <v>9145942.555864818</v>
       </c>
       <c r="M7" t="n">
-        <v>2897617.506794312</v>
+        <v>9203077.661234643</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1720461.935656324</v>
+        <v>19417080.1038519</v>
       </c>
       <c r="C8" t="n">
-        <v>1689769.206031241</v>
+        <v>14335979.48376537</v>
       </c>
       <c r="D8" t="n">
-        <v>1371201.278067882</v>
+        <v>16417486.12222282</v>
       </c>
       <c r="E8" t="n">
-        <v>1392276.434821778</v>
+        <v>17390201.43640338</v>
       </c>
       <c r="F8" t="n">
-        <v>1812359.133122249</v>
+        <v>19418870.41087861</v>
       </c>
       <c r="G8" t="n">
-        <v>1779778.378729722</v>
+        <v>14337411.72938674</v>
       </c>
       <c r="H8" t="n">
-        <v>1459361.215402959</v>
+        <v>16418631.91871991</v>
       </c>
       <c r="I8" t="n">
-        <v>1478625.129270514</v>
+        <v>17391118.07360106</v>
       </c>
       <c r="J8" t="n">
-        <v>1896933.796607571</v>
+        <v>19419603.72063674</v>
       </c>
       <c r="K8" t="n">
-        <v>1862615.458656877</v>
+        <v>14337998.37719325</v>
       </c>
       <c r="L8" t="n">
-        <v>1540496.410366505</v>
+        <v>16419101.23696512</v>
       </c>
       <c r="M8" t="n">
-        <v>1558093.404438608</v>
+        <v>17391493.52819722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2635671.107199701</v>
+        <v>25308688.67496368</v>
       </c>
       <c r="C9" t="n">
-        <v>2635905.220472227</v>
+        <v>23882038.6390229</v>
       </c>
       <c r="D9" t="n">
-        <v>2636305.325724499</v>
+        <v>26028028.00367814</v>
       </c>
       <c r="E9" t="n">
-        <v>2636368.50252034</v>
+        <v>24994844.87474118</v>
       </c>
       <c r="F9" t="n">
-        <v>2636846.012964539</v>
+        <v>27115640.40142499</v>
       </c>
       <c r="G9" t="n">
-        <v>2637055.307656552</v>
+        <v>25614845.51811752</v>
       </c>
       <c r="H9" t="n">
-        <v>2637431.118593283</v>
+        <v>27689732.42901877</v>
       </c>
       <c r="I9" t="n">
-        <v>2637470.514264039</v>
+        <v>26588364.4010714</v>
       </c>
       <c r="J9" t="n">
-        <v>2637924.745933033</v>
+        <v>28643772.86714624</v>
       </c>
       <c r="K9" t="n">
-        <v>2638111.253588133</v>
+        <v>27080273.95762282</v>
       </c>
       <c r="L9" t="n">
-        <v>2638464.758838821</v>
+        <v>29095029.7834581</v>
       </c>
       <c r="M9" t="n">
-        <v>2638482.320006399</v>
+        <v>27935998.03581979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5706807.734860696</v>
+        <v>27184877.40951758</v>
       </c>
       <c r="C10" t="n">
-        <v>5745348.766072209</v>
+        <v>32476700.62224256</v>
       </c>
       <c r="D10" t="n">
-        <v>4997203.696631287</v>
+        <v>37663282.38945085</v>
       </c>
       <c r="E10" t="n">
-        <v>5188127.941497172</v>
+        <v>42747408.33937053</v>
       </c>
       <c r="F10" t="n">
-        <v>6449291.903446045</v>
+        <v>47727996.84136409</v>
       </c>
       <c r="G10" t="n">
-        <v>6472982.177240857</v>
+        <v>52608585.40671547</v>
       </c>
       <c r="H10" t="n">
-        <v>5710283.387014022</v>
+        <v>57392164.671418</v>
       </c>
       <c r="I10" t="n">
-        <v>5886945.006562485</v>
+        <v>62081355.47162896</v>
       </c>
       <c r="J10" t="n">
-        <v>7134131.616331972</v>
+        <v>66674914.68346766</v>
       </c>
       <c r="K10" t="n">
-        <v>7144124.10521001</v>
+        <v>71176221.55776605</v>
       </c>
       <c r="L10" t="n">
-        <v>6368001.505579351</v>
+        <v>75588111.63814238</v>
       </c>
       <c r="M10" t="n">
-        <v>6531507.811330358</v>
+        <v>79913053.77303675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3850259.813010307</v>
+        <v>15668249.75752228</v>
       </c>
       <c r="C11" t="n">
-        <v>2455920.369122563</v>
+        <v>16480018.13725439</v>
       </c>
       <c r="D11" t="n">
-        <v>4784877.731046497</v>
+        <v>18225294.12242854</v>
       </c>
       <c r="E11" t="n">
-        <v>2091673.199092226</v>
+        <v>17771086.9109276</v>
       </c>
       <c r="F11" t="n">
-        <v>3852939.119608426</v>
+        <v>18051869.52250035</v>
       </c>
       <c r="G11" t="n">
-        <v>2458542.77364261</v>
+        <v>18815961.94847783</v>
       </c>
       <c r="H11" t="n">
-        <v>4787444.441952814</v>
+        <v>20514515.57014685</v>
       </c>
       <c r="I11" t="n">
-        <v>2094185.399184258</v>
+        <v>20014520.5121617</v>
       </c>
       <c r="J11" t="n">
-        <v>3855397.966565782</v>
+        <v>20250431.10253563</v>
       </c>
       <c r="K11" t="n">
-        <v>2460949.400558543</v>
+        <v>20970549.01472674</v>
       </c>
       <c r="L11" t="n">
-        <v>4789799.957856383</v>
+        <v>22626007.67853373</v>
       </c>
       <c r="M11" t="n">
-        <v>2096490.889551392</v>
+        <v>22083779.62617934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>681847.5407844465</v>
+        <v>35297368.6355418</v>
       </c>
       <c r="C12" t="n">
-        <v>330676.9882390939</v>
+        <v>36485585.82831067</v>
       </c>
       <c r="D12" t="n">
-        <v>174707.7471783668</v>
+        <v>41221240.74320713</v>
       </c>
       <c r="E12" t="n">
-        <v>380728.0026975149</v>
+        <v>43248204.33822537</v>
       </c>
       <c r="F12" t="n">
-        <v>683146.4552841119</v>
+        <v>35298830.94271795</v>
       </c>
       <c r="G12" t="n">
-        <v>331832.2765393502</v>
+        <v>36486802.0123496</v>
       </c>
       <c r="H12" t="n">
-        <v>175735.2906056306</v>
+        <v>41222252.22946711</v>
       </c>
       <c r="I12" t="n">
-        <v>381641.9265160795</v>
+        <v>43249045.57969983</v>
       </c>
       <c r="J12" t="n">
-        <v>683959.322870997</v>
+        <v>35299530.59356479</v>
       </c>
       <c r="K12" t="n">
-        <v>332555.2620884589</v>
+        <v>36487383.90390195</v>
       </c>
       <c r="L12" t="n">
-        <v>176378.3327353126</v>
+        <v>41222736.18197031</v>
       </c>
       <c r="M12" t="n">
-        <v>382213.8648916883</v>
+        <v>43249448.0774237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1450796.367266385</v>
+        <v>37612884.74501316</v>
       </c>
       <c r="C13" t="n">
-        <v>1611106.766193289</v>
+        <v>32475227.84914844</v>
       </c>
       <c r="D13" t="n">
-        <v>1768322.039875713</v>
+        <v>39583959.4238361</v>
       </c>
       <c r="E13" t="n">
-        <v>1922277.902384156</v>
+        <v>40498324.61521731</v>
       </c>
       <c r="F13" t="n">
-        <v>2073304.921798351</v>
+        <v>37614425.48840656</v>
       </c>
       <c r="G13" t="n">
-        <v>2221159.592332512</v>
+        <v>32476460.46083401</v>
       </c>
       <c r="H13" t="n">
-        <v>2366168.363385702</v>
+        <v>39584945.52676143</v>
       </c>
       <c r="I13" t="n">
-        <v>2508161.962288242</v>
+        <v>40499113.50841922</v>
       </c>
       <c r="J13" t="n">
-        <v>2647466.070159013</v>
+        <v>37615056.61165752</v>
       </c>
       <c r="K13" t="n">
-        <v>2783832.392034217</v>
+        <v>32476965.36638641</v>
       </c>
       <c r="L13" t="n">
-        <v>2917582.683961223</v>
+        <v>39585349.45676474</v>
       </c>
       <c r="M13" t="n">
-        <v>3048543.073827589</v>
+        <v>40499436.65687104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20242.7875178807</v>
+        <v>3158347.911227976</v>
       </c>
       <c r="C14" t="n">
-        <v>-94177.27542228648</v>
+        <v>4254506.446926739</v>
       </c>
       <c r="D14" t="n">
-        <v>-70389.64848210198</v>
+        <v>5328816.046309102</v>
       </c>
       <c r="E14" t="n">
-        <v>48203.98365532931</v>
+        <v>6381467.736384535</v>
       </c>
       <c r="F14" t="n">
-        <v>19883.54293480265</v>
+        <v>7413041.413587743</v>
       </c>
       <c r="G14" t="n">
-        <v>-94528.83226058976</v>
+        <v>8424035.788087832</v>
       </c>
       <c r="H14" t="n">
-        <v>-70733.68209145759</v>
+        <v>9414885.916479792</v>
       </c>
       <c r="I14" t="n">
-        <v>47867.31227969204</v>
+        <v>10385748.703806</v>
       </c>
       <c r="J14" t="n">
-        <v>19554.0762429123</v>
+        <v>11337170.60753713</v>
       </c>
       <c r="K14" t="n">
-        <v>-94851.2484471744</v>
+        <v>12269617.56820998</v>
       </c>
       <c r="L14" t="n">
-        <v>-71049.1986517974</v>
+        <v>13183492.52872125</v>
       </c>
       <c r="M14" t="n">
-        <v>47558.54769531058</v>
+        <v>14078920.92321956</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>893774.9170195487</v>
+        <v>3948917.769094818</v>
       </c>
       <c r="C15" t="n">
-        <v>939566.3441749602</v>
+        <v>3739825.136368174</v>
       </c>
       <c r="D15" t="n">
-        <v>981993.7149185769</v>
+        <v>3860984.275921691</v>
       </c>
       <c r="E15" t="n">
-        <v>1021477.505148538</v>
+        <v>4041881.862774326</v>
       </c>
       <c r="F15" t="n">
-        <v>1058183.4640559</v>
+        <v>4223167.975907583</v>
       </c>
       <c r="G15" t="n">
-        <v>1092315.007815918</v>
+        <v>4008590.199861446</v>
       </c>
       <c r="H15" t="n">
-        <v>1123909.416168218</v>
+        <v>4124373.901745597</v>
       </c>
       <c r="I15" t="n">
-        <v>1153328.519626266</v>
+        <v>4300003.562410312</v>
       </c>
       <c r="J15" t="n">
-        <v>1180683.581137553</v>
+        <v>4476127.110552903</v>
       </c>
       <c r="K15" t="n">
-        <v>1206127.394807856</v>
+        <v>4256490.02343594</v>
       </c>
       <c r="L15" t="n">
-        <v>1229650.208433491</v>
+        <v>4367315.603038304</v>
       </c>
       <c r="M15" t="n">
-        <v>1251570.156098398</v>
+        <v>4538086.306383138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1267560.063399528</v>
+        <v>11788769.79726639</v>
       </c>
       <c r="C16" t="n">
-        <v>1409165.440637773</v>
+        <v>11394591.30829499</v>
       </c>
       <c r="D16" t="n">
-        <v>1547808.928091505</v>
+        <v>11571623.08483968</v>
       </c>
       <c r="E16" t="n">
-        <v>1683770.727007539</v>
+        <v>12224001.66592643</v>
       </c>
       <c r="F16" t="n">
-        <v>1816988.140621043</v>
+        <v>12791235.56276709</v>
       </c>
       <c r="G16" t="n">
-        <v>1947604.744777797</v>
+        <v>12377003.68426455</v>
       </c>
       <c r="H16" t="n">
-        <v>2075479.238842492</v>
+        <v>12534383.22056971</v>
       </c>
       <c r="I16" t="n">
-        <v>2200887.428383474</v>
+        <v>13167502.68609234</v>
       </c>
       <c r="J16" t="n">
-        <v>2323762.308872705</v>
+        <v>13715862.72795306</v>
       </c>
       <c r="K16" t="n">
-        <v>2444243.234549684</v>
+        <v>13283134.5482773</v>
       </c>
       <c r="L16" t="n">
-        <v>2562184.767606569</v>
+        <v>13422387.78460535</v>
       </c>
       <c r="M16" t="n">
-        <v>2677858.659184218</v>
+        <v>14037743.54981934</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7202841.38844101</v>
+        <v>4836074.085281529</v>
       </c>
       <c r="C17" t="n">
-        <v>7943786.594578729</v>
+        <v>4909694.130566333</v>
       </c>
       <c r="D17" t="n">
-        <v>8670513.94920714</v>
+        <v>4982437.730850864</v>
       </c>
       <c r="E17" t="n">
-        <v>9381917.038090171</v>
+        <v>5052959.808752852</v>
       </c>
       <c r="F17" t="n">
-        <v>10079804.42741567</v>
+        <v>5122101.516452985</v>
       </c>
       <c r="G17" t="n">
-        <v>10763198.56339191</v>
+        <v>5189911.487547063</v>
       </c>
       <c r="H17" t="n">
-        <v>11433526.10549818</v>
+        <v>5256963.033657211</v>
       </c>
       <c r="I17" t="n">
-        <v>12089657.60961993</v>
+        <v>5321908.680060988</v>
       </c>
       <c r="J17" t="n">
-        <v>12733379.07275865</v>
+        <v>5385587.230296074</v>
       </c>
       <c r="K17" t="n">
-        <v>13363690.82341258</v>
+        <v>5448045.017023236</v>
       </c>
       <c r="L17" t="n">
-        <v>13981997.84579602</v>
+        <v>5509853.097668452</v>
       </c>
       <c r="M17" t="n">
-        <v>14587149.45412366</v>
+        <v>5569661.789102613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1298320.823141978</v>
+        <v>3458149.029190517</v>
       </c>
       <c r="C18" t="n">
-        <v>1551969.553119538</v>
+        <v>3447363.987781365</v>
       </c>
       <c r="D18" t="n">
-        <v>1272977.680796742</v>
+        <v>3395524.298852324</v>
       </c>
       <c r="E18" t="n">
-        <v>1262951.765687081</v>
+        <v>3280421.245453861</v>
       </c>
       <c r="F18" t="n">
-        <v>1346442.333213313</v>
+        <v>3544101.910658506</v>
       </c>
       <c r="G18" t="n">
-        <v>1599128.175798816</v>
+        <v>3530485.142898448</v>
       </c>
       <c r="H18" t="n">
-        <v>1319192.68297996</v>
+        <v>3475907.019128798</v>
       </c>
       <c r="I18" t="n">
-        <v>1308242.028749268</v>
+        <v>3358155.748901802</v>
       </c>
       <c r="J18" t="n">
-        <v>1390826.360722606</v>
+        <v>3619275.443048484</v>
       </c>
       <c r="K18" t="n">
-        <v>1642624.101076196</v>
+        <v>3603182.075680318</v>
       </c>
       <c r="L18" t="n">
-        <v>1361818.276507705</v>
+        <v>3546208.944126489</v>
       </c>
       <c r="M18" t="n">
-        <v>1350014.705431178</v>
+        <v>3426141.569888373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37985.06561674994</v>
+        <v>5206944.213657528</v>
       </c>
       <c r="C19" t="n">
-        <v>3308.378110303494</v>
+        <v>3372066.113943282</v>
       </c>
       <c r="D19" t="n">
-        <v>62585.78444253145</v>
+        <v>5440600.904706978</v>
       </c>
       <c r="E19" t="n">
-        <v>-2973.036942734423</v>
+        <v>5447868.508650223</v>
       </c>
       <c r="F19" t="n">
-        <v>28148.19873893082</v>
+        <v>5206577.89742515</v>
       </c>
       <c r="G19" t="n">
-        <v>-6173.971473253845</v>
+        <v>3371773.06088019</v>
       </c>
       <c r="H19" t="n">
-        <v>53445.17547205358</v>
+        <v>5440366.462194753</v>
       </c>
       <c r="I19" t="n">
-        <v>-11784.22151412585</v>
+        <v>5447680.954591041</v>
       </c>
       <c r="J19" t="n">
-        <v>19654.56622474313</v>
+        <v>5206427.854138284</v>
       </c>
       <c r="K19" t="n">
-        <v>-14361.49639700809</v>
+        <v>3371653.02621908</v>
       </c>
       <c r="L19" t="n">
-        <v>45552.72612660316</v>
+        <v>5440270.434440571</v>
       </c>
       <c r="M19" t="n">
-        <v>-19392.22970348455</v>
+        <v>5447604.132367461</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1937280.473571656</v>
+        <v>1974816.576498108</v>
       </c>
       <c r="C20" t="n">
-        <v>2333454.150782291</v>
+        <v>2158311.661497512</v>
       </c>
       <c r="D20" t="n">
-        <v>1739453.770894669</v>
+        <v>2806532.515251926</v>
       </c>
       <c r="E20" t="n">
-        <v>2208757.281034774</v>
+        <v>2683890.611318938</v>
       </c>
       <c r="F20" t="n">
-        <v>1934855.734515338</v>
+        <v>1974451.287524838</v>
       </c>
       <c r="G20" t="n">
-        <v>2331275.61396647</v>
+        <v>2158016.631509053</v>
       </c>
       <c r="H20" t="n">
-        <v>1737496.437529034</v>
+        <v>2806294.230769065</v>
       </c>
       <c r="I20" t="n">
-        <v>2206998.690646765</v>
+        <v>2683698.158019296</v>
       </c>
       <c r="J20" t="n">
-        <v>1933275.707215393</v>
+        <v>1974295.850325998</v>
       </c>
       <c r="K20" t="n">
-        <v>2329856.018883047</v>
+        <v>2157891.090804745</v>
       </c>
       <c r="L20" t="n">
-        <v>1736220.984756194</v>
+        <v>2806192.83632452</v>
       </c>
       <c r="M20" t="n">
-        <v>2205852.744316898</v>
+        <v>2683616.265588938</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1263050.142594613</v>
+        <v>4056633.466198242</v>
       </c>
       <c r="C21" t="n">
-        <v>1316438.741734565</v>
+        <v>4256398.94886438</v>
       </c>
       <c r="D21" t="n">
-        <v>1190934.01695486</v>
+        <v>4379896.352092118</v>
       </c>
       <c r="E21" t="n">
-        <v>1564114.37420482</v>
+        <v>3929865.100515985</v>
       </c>
       <c r="F21" t="n">
-        <v>1263442.328343772</v>
+        <v>4059962.615590238</v>
       </c>
       <c r="G21" t="n">
-        <v>1316765.175124223</v>
+        <v>4259659.189730407</v>
       </c>
       <c r="H21" t="n">
-        <v>1191205.721773589</v>
+        <v>4383089.110737935</v>
       </c>
       <c r="I21" t="n">
-        <v>1564340.526035055</v>
+        <v>3932991.773724907</v>
       </c>
       <c r="J21" t="n">
-        <v>1263630.564424963</v>
+        <v>4063024.571234207</v>
       </c>
       <c r="K21" t="n">
-        <v>1316921.852265528</v>
+        <v>4262657.767368415</v>
       </c>
       <c r="L21" t="n">
-        <v>1191336.131025908</v>
+        <v>4386025.622202062</v>
       </c>
       <c r="M21" t="n">
-        <v>1564449.071371973</v>
+        <v>3935867.503694226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437834.2941819017</v>
+        <v>11200225.15433849</v>
       </c>
       <c r="C22" t="n">
-        <v>437529.0424386455</v>
+        <v>10259856.62231037</v>
       </c>
       <c r="D22" t="n">
-        <v>437310.1734550613</v>
+        <v>12618185.44337475</v>
       </c>
       <c r="E22" t="n">
-        <v>437329.454790701</v>
+        <v>11572948.78975511</v>
       </c>
       <c r="F22" t="n">
-        <v>437843.0735581216</v>
+        <v>11760927.58793756</v>
       </c>
       <c r="G22" t="n">
-        <v>437537.6358569243</v>
+        <v>10774100.65202007</v>
       </c>
       <c r="H22" t="n">
-        <v>437318.5848542159</v>
+        <v>13089820.49656086</v>
       </c>
       <c r="I22" t="n">
-        <v>437337.6880261195</v>
+        <v>12005505.33984172</v>
       </c>
       <c r="J22" t="n">
-        <v>437851.13240353</v>
+        <v>12157643.58213445</v>
       </c>
       <c r="K22" t="n">
-        <v>437545.5240061167</v>
+        <v>11137945.74931455</v>
       </c>
       <c r="L22" t="n">
-        <v>437326.3059227472</v>
+        <v>13423518.29741012</v>
       </c>
       <c r="M22" t="n">
-        <v>437345.2455529627</v>
+        <v>12311553.77396836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5514.961666023532</v>
+        <v>9460022.788231909</v>
       </c>
       <c r="C23" t="n">
-        <v>5584.603145088732</v>
+        <v>7050436.33387835</v>
       </c>
       <c r="D23" t="n">
-        <v>5461.644664587482</v>
+        <v>6748666.889830115</v>
       </c>
       <c r="E23" t="n">
-        <v>5499.775938416334</v>
+        <v>6918199.326928106</v>
       </c>
       <c r="F23" t="n">
-        <v>5472.264110533398</v>
+        <v>9468724.108764516</v>
       </c>
       <c r="G23" t="n">
-        <v>5542.81657008051</v>
+        <v>7058331.325340752</v>
       </c>
       <c r="H23" t="n">
-        <v>5420.7496336923</v>
+        <v>6755830.272670433</v>
       </c>
       <c r="I23" t="n">
-        <v>5459.753429953059</v>
+        <v>6924698.897442063</v>
       </c>
       <c r="J23" t="n">
-        <v>5433.095508660997</v>
+        <v>9474621.380738888</v>
       </c>
       <c r="K23" t="n">
-        <v>5504.483656139185</v>
+        <v>7063682.112237367</v>
       </c>
       <c r="L23" t="n">
-        <v>5383.234577729366</v>
+        <v>6760685.215860677</v>
       </c>
       <c r="M23" t="n">
-        <v>5423.038782429619</v>
+        <v>6929103.945491239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11246105.85677179</v>
+        <v>10793715.51149827</v>
       </c>
       <c r="C24" t="n">
-        <v>11799638.81558541</v>
+        <v>8363565.043688267</v>
       </c>
       <c r="D24" t="n">
-        <v>10112133.96531895</v>
+        <v>9951492.559265479</v>
       </c>
       <c r="E24" t="n">
-        <v>10886035.6242783</v>
+        <v>10720417.48614877</v>
       </c>
       <c r="F24" t="n">
-        <v>11247669.95701591</v>
+        <v>11455845.3494752</v>
       </c>
       <c r="G24" t="n">
-        <v>11800890.09578071</v>
+        <v>9012451.976352742</v>
       </c>
       <c r="H24" t="n">
-        <v>10113134.98947519</v>
+        <v>10587401.45089495</v>
       </c>
       <c r="I24" t="n">
-        <v>10886836.44360329</v>
+        <v>11343607.90361171</v>
       </c>
       <c r="J24" t="n">
-        <v>11248310.61247591</v>
+        <v>12066571.66818176</v>
       </c>
       <c r="K24" t="n">
-        <v>11801402.6201487</v>
+        <v>9610963.484086318</v>
       </c>
       <c r="L24" t="n">
-        <v>10113545.00896958</v>
+        <v>11173942.44956711</v>
       </c>
       <c r="M24" t="n">
-        <v>10887164.45919881</v>
+        <v>11918417.80898196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2586981.99705287</v>
+        <v>5300938.082586788</v>
       </c>
       <c r="C25" t="n">
-        <v>3113004.9794293</v>
+        <v>4301106.94660433</v>
       </c>
       <c r="D25" t="n">
-        <v>2284425.433920303</v>
+        <v>4896636.854922502</v>
       </c>
       <c r="E25" t="n">
-        <v>2834417.831709667</v>
+        <v>5333879.336146512</v>
       </c>
       <c r="F25" t="n">
-        <v>2620938.037500548</v>
+        <v>5363844.466361048</v>
       </c>
       <c r="G25" t="n">
-        <v>3145651.7778933</v>
+        <v>4362670.818328165</v>
       </c>
       <c r="H25" t="n">
-        <v>2315813.470802614</v>
+        <v>4956886.865719968</v>
       </c>
       <c r="I25" t="n">
-        <v>2864595.64104101</v>
+        <v>5392843.52568577</v>
       </c>
       <c r="J25" t="n">
-        <v>2649952.281986545</v>
+        <v>5421550.275903705</v>
       </c>
       <c r="K25" t="n">
-        <v>3173547.321067101</v>
+        <v>4419145.103500121</v>
       </c>
       <c r="L25" t="n">
-        <v>2342633.446395533</v>
+        <v>5012155.909009724</v>
       </c>
       <c r="M25" t="n">
-        <v>2890381.519678437</v>
+        <v>5446933.048675993</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9009499.849160362</v>
+        <v>12106948.28780604</v>
       </c>
       <c r="C26" t="n">
-        <v>9076085.471802864</v>
+        <v>10564589.81158389</v>
       </c>
       <c r="D26" t="n">
-        <v>9191363.845458435</v>
+        <v>11025499.72669085</v>
       </c>
       <c r="E26" t="n">
-        <v>10080428.35102123</v>
+        <v>10765724.46368655</v>
       </c>
       <c r="F26" t="n">
-        <v>9370293.367504796</v>
+        <v>12106953.95953389</v>
       </c>
       <c r="G26" t="n">
-        <v>9426361.93731718</v>
+        <v>10564594.35218655</v>
       </c>
       <c r="H26" t="n">
-        <v>9531429.827952255</v>
+        <v>11025503.36175111</v>
       </c>
       <c r="I26" t="n">
-        <v>10410581.4838607</v>
+        <v>10765727.37379873</v>
       </c>
       <c r="J26" t="n">
-        <v>9690822.608107964</v>
+        <v>12106956.28927598</v>
       </c>
       <c r="K26" t="n">
-        <v>9737547.820056023</v>
+        <v>10564596.21730304</v>
       </c>
       <c r="L26" t="n">
-        <v>9833544.709682629</v>
+        <v>11025504.85490331</v>
       </c>
       <c r="M26" t="n">
-        <v>10703889.78229517</v>
+        <v>10765728.5691683</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12162266.02743839</v>
+        <v>4806850.67731611</v>
       </c>
       <c r="C27" t="n">
-        <v>13789927.6606561</v>
+        <v>4075520.55450993</v>
       </c>
       <c r="D27" t="n">
-        <v>12698497.1875369</v>
+        <v>4810304.169157535</v>
       </c>
       <c r="E27" t="n">
-        <v>13290302.69194363</v>
+        <v>4882012.245402207</v>
       </c>
       <c r="F27" t="n">
-        <v>12488032.46101696</v>
+        <v>4909254.024676394</v>
       </c>
       <c r="G27" t="n">
-        <v>14109178.59495185</v>
+        <v>4175873.264535018</v>
       </c>
       <c r="H27" t="n">
-        <v>13011362.93594778</v>
+        <v>4908647.306066409</v>
       </c>
       <c r="I27" t="n">
-        <v>13596910.96153142</v>
+        <v>4978386.051098731</v>
       </c>
       <c r="J27" t="n">
-        <v>12788508.4046353</v>
+        <v>5003697.93521626</v>
       </c>
       <c r="K27" t="n">
-        <v>14403644.86233177</v>
+        <v>4268425.926262933</v>
       </c>
       <c r="L27" t="n">
-        <v>13299939.72376145</v>
+        <v>4999346.591430139</v>
       </c>
       <c r="M27" t="n">
-        <v>13879716.06245462</v>
+        <v>5067269.074146464</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14755183.80710392</v>
+        <v>13089528.55932236</v>
       </c>
       <c r="C28" t="n">
-        <v>15511570.23204084</v>
+        <v>9292549.988915022</v>
       </c>
       <c r="D28" t="n">
-        <v>16116013.12634056</v>
+        <v>11784774.93431779</v>
       </c>
       <c r="E28" t="n">
-        <v>16600464.20182077</v>
+        <v>13604427.23701079</v>
       </c>
       <c r="F28" t="n">
-        <v>16988078.36856054</v>
+        <v>13514217.47977722</v>
       </c>
       <c r="G28" t="n">
-        <v>17297885.88120613</v>
+        <v>9708736.895678308</v>
       </c>
       <c r="H28" t="n">
-        <v>17545065.64567279</v>
+        <v>12192630.03252868</v>
       </c>
       <c r="I28" t="n">
-        <v>17743706.21728656</v>
+        <v>14004117.32440515</v>
       </c>
       <c r="J28" t="n">
-        <v>17902671.98093317</v>
+        <v>13905906.01490181</v>
       </c>
       <c r="K28" t="n">
-        <v>18029560.77110423</v>
+        <v>10092584.06473924</v>
       </c>
       <c r="L28" t="n">
-        <v>18130405.55759127</v>
+        <v>12568792.81490173</v>
       </c>
       <c r="M28" t="n">
-        <v>18211978.14682135</v>
+        <v>14372749.55683456</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17408907.39395392</v>
+        <v>2495075.66704954</v>
       </c>
       <c r="C29" t="n">
-        <v>18274764.27458671</v>
+        <v>2593391.068879879</v>
       </c>
       <c r="D29" t="n">
-        <v>19124102.50807324</v>
+        <v>2689757.168921401</v>
       </c>
       <c r="E29" t="n">
-        <v>19956945.78133111</v>
+        <v>2784292.011156875</v>
       </c>
       <c r="F29" t="n">
-        <v>20771248.73053947</v>
+        <v>2876803.706165367</v>
       </c>
       <c r="G29" t="n">
-        <v>21569798.43838818</v>
+        <v>2967483.358000375</v>
       </c>
       <c r="H29" t="n">
-        <v>22353176.85055042</v>
+        <v>3056366.446834438</v>
       </c>
       <c r="I29" t="n">
-        <v>23121380.68273284</v>
+        <v>3143567.961398734</v>
       </c>
       <c r="J29" t="n">
-        <v>23872338.13981191</v>
+        <v>3228893.018135287</v>
       </c>
       <c r="K29" t="n">
-        <v>24608810.40227528</v>
+        <v>3312529.786852625</v>
       </c>
       <c r="L29" t="n">
-        <v>25331354.03210279</v>
+        <v>3394510.872172353</v>
       </c>
       <c r="M29" t="n">
-        <v>26039940.86943724</v>
+        <v>3474948.444794696</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44599969.85908932</v>
+        <v>801682.4263042302</v>
       </c>
       <c r="C30" t="n">
-        <v>36649430.83441602</v>
+        <v>580362.4833652291</v>
       </c>
       <c r="D30" t="n">
-        <v>39720141.24200976</v>
+        <v>552801.7840043947</v>
       </c>
       <c r="E30" t="n">
-        <v>42575787.59153717</v>
+        <v>605072.0215698499</v>
       </c>
       <c r="F30" t="n">
-        <v>44602596.58764155</v>
+        <v>752283.8501971911</v>
       </c>
       <c r="G30" t="n">
-        <v>36651532.21725781</v>
+        <v>537664.6905438282</v>
       </c>
       <c r="H30" t="n">
-        <v>39721822.34828319</v>
+        <v>515895.8313334331</v>
       </c>
       <c r="I30" t="n">
-        <v>42577132.47655592</v>
+        <v>573172.261592829</v>
       </c>
       <c r="J30" t="n">
-        <v>44603672.49565656</v>
+        <v>724711.206410862</v>
       </c>
       <c r="K30" t="n">
-        <v>36652392.94366982</v>
+        <v>513832.2013365288</v>
       </c>
       <c r="L30" t="n">
-        <v>39722510.9294128</v>
+        <v>495296.1548491034</v>
       </c>
       <c r="M30" t="n">
-        <v>42577683.3414596</v>
+        <v>555366.8755264387</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40468821.55825678</v>
+        <v>589679.5323818411</v>
       </c>
       <c r="C31" t="n">
-        <v>37585545.53644718</v>
+        <v>560212.0595494461</v>
       </c>
       <c r="D31" t="n">
-        <v>33479723.56744243</v>
+        <v>696217.8560386641</v>
       </c>
       <c r="E31" t="n">
-        <v>39557286.83514314</v>
+        <v>654175.5867985517</v>
       </c>
       <c r="F31" t="n">
-        <v>40471002.00045276</v>
+        <v>589648.4053919032</v>
       </c>
       <c r="G31" t="n">
-        <v>37587289.90840194</v>
+        <v>560187.1554808456</v>
       </c>
       <c r="H31" t="n">
-        <v>33481119.07956477</v>
+        <v>696197.9308022665</v>
       </c>
       <c r="I31" t="n">
-        <v>39558403.25648795</v>
+        <v>654159.6450240621</v>
       </c>
       <c r="J31" t="n">
-        <v>40471895.14684626</v>
+        <v>589635.6507038883</v>
       </c>
       <c r="K31" t="n">
-        <v>37588004.43297093</v>
+        <v>560176.950715594</v>
       </c>
       <c r="L31" t="n">
-        <v>33481690.70518339</v>
+        <v>696189.7661781127</v>
       </c>
       <c r="M31" t="n">
-        <v>39558860.56175364</v>
+        <v>654153.1126751126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>878934.1135471904</v>
+        <v>1870922.155090118</v>
       </c>
       <c r="C32" t="n">
-        <v>854106.6329960051</v>
+        <v>1847460.054993832</v>
       </c>
       <c r="D32" t="n">
-        <v>813062.5565334514</v>
+        <v>1901374.939538374</v>
       </c>
       <c r="E32" t="n">
-        <v>1439459.178126105</v>
+        <v>1963396.749760645</v>
       </c>
       <c r="F32" t="n">
-        <v>1409042.701779633</v>
+        <v>1974656.360488842</v>
       </c>
       <c r="G32" t="n">
-        <v>1373613.004059286</v>
+        <v>1947859.589567525</v>
       </c>
       <c r="H32" t="n">
-        <v>1322178.755679047</v>
+        <v>1998547.000613787</v>
       </c>
       <c r="I32" t="n">
-        <v>1938393.009682302</v>
+        <v>2057445.088667168</v>
       </c>
       <c r="J32" t="n">
-        <v>1897997.813970353</v>
+        <v>2065681.393334566</v>
       </c>
       <c r="K32" t="n">
-        <v>1852788.972126528</v>
+        <v>2035958.504454266</v>
       </c>
       <c r="L32" t="n">
-        <v>1791771.163342879</v>
+        <v>2083813.861405541</v>
       </c>
       <c r="M32" t="n">
-        <v>2398593.528971636</v>
+        <v>2139970.935422797</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4716208.216719566</v>
+        <v>2253104.473711084</v>
       </c>
       <c r="C33" t="n">
-        <v>4803241.550711669</v>
+        <v>2253139.950947864</v>
       </c>
       <c r="D33" t="n">
-        <v>4175921.895894535</v>
+        <v>2253520.051745565</v>
       </c>
       <c r="E33" t="n">
-        <v>4341840.375755989</v>
+        <v>2253722.942691058</v>
       </c>
       <c r="F33" t="n">
-        <v>5020471.650658349</v>
+        <v>2253857.915809863</v>
       </c>
       <c r="G33" t="n">
-        <v>5101419.291011969</v>
+        <v>2253877.249705676</v>
       </c>
       <c r="H33" t="n">
-        <v>4468135.66492891</v>
+        <v>2254241.553051573</v>
       </c>
       <c r="I33" t="n">
-        <v>4628209.461279537</v>
+        <v>2254428.985023364</v>
       </c>
       <c r="J33" t="n">
-        <v>5301112.954504458</v>
+        <v>2254548.830394295</v>
       </c>
       <c r="K33" t="n">
-        <v>5376447.376814089</v>
+        <v>2254553.360671177</v>
       </c>
       <c r="L33" t="n">
-        <v>4737662.804887808</v>
+        <v>2254903.177582263</v>
       </c>
       <c r="M33" t="n">
-        <v>4892345.681995157</v>
+        <v>2255076.433507335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10554487.88570009</v>
+        <v>2500855.816720154</v>
       </c>
       <c r="C34" t="n">
-        <v>11132124.10872529</v>
+        <v>2145365.486470141</v>
       </c>
       <c r="D34" t="n">
-        <v>10709177.45816787</v>
+        <v>2515173.099636008</v>
       </c>
       <c r="E34" t="n">
-        <v>10757468.47447209</v>
+        <v>2516120.406792426</v>
       </c>
       <c r="F34" t="n">
-        <v>11286928.1483851</v>
+        <v>2510911.471442987</v>
       </c>
       <c r="G34" t="n">
-        <v>11849912.21427434</v>
+        <v>2154672.520945635</v>
       </c>
       <c r="H34" t="n">
-        <v>11412606.51677665</v>
+        <v>2523787.246910908</v>
       </c>
       <c r="I34" t="n">
-        <v>11446825.73279104</v>
+        <v>2524093.250716991</v>
       </c>
       <c r="J34" t="n">
-        <v>11962495.1068171</v>
+        <v>2518290.755569079</v>
       </c>
       <c r="K34" t="n">
-        <v>12511964.74192596</v>
+        <v>2161502.434428052</v>
       </c>
       <c r="L34" t="n">
-        <v>12061414.9641099</v>
+        <v>2530108.68912403</v>
       </c>
       <c r="M34" t="n">
-        <v>12082655.04202146</v>
+        <v>2529944.076171327</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4617049.062693718</v>
+        <v>1607436.82317206</v>
       </c>
       <c r="C35" t="n">
-        <v>4683873.737942721</v>
+        <v>1614219.61209005</v>
       </c>
       <c r="D35" t="n">
-        <v>4749408.496736783</v>
+        <v>1620918.183456449</v>
       </c>
       <c r="E35" t="n">
-        <v>4814249.939848037</v>
+        <v>1627570.926774384</v>
       </c>
       <c r="F35" t="n">
-        <v>4877016.081609262</v>
+        <v>1633604.269881522</v>
       </c>
       <c r="G35" t="n">
-        <v>4938636.90232286</v>
+        <v>1639830.147408094</v>
       </c>
       <c r="H35" t="n">
-        <v>4999071.974033753</v>
+        <v>1645983.659907371</v>
       </c>
       <c r="I35" t="n">
-        <v>5058915.812356229</v>
+        <v>1652102.944629906</v>
       </c>
       <c r="J35" t="n">
-        <v>5116784.388204588</v>
+        <v>1657614.182529383</v>
       </c>
       <c r="K35" t="n">
-        <v>5173605.679366603</v>
+        <v>1663329.066606383</v>
       </c>
       <c r="L35" t="n">
-        <v>5229337.295457632</v>
+        <v>1668982.460927038</v>
       </c>
       <c r="M35" t="n">
-        <v>5284571.82894507</v>
+        <v>1674612.271287819</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2881234.132799519</v>
+        <v>1376104.548410737</v>
       </c>
       <c r="C36" t="n">
-        <v>3220182.337661183</v>
+        <v>1375087.629501655</v>
       </c>
       <c r="D36" t="n">
-        <v>3159598.685400399</v>
+        <v>1588222.302279265</v>
       </c>
       <c r="E36" t="n">
-        <v>3103816.745851783</v>
+        <v>1567162.95576561</v>
       </c>
       <c r="F36" t="n">
-        <v>2948326.031860233</v>
+        <v>1388981.050527917</v>
       </c>
       <c r="G36" t="n">
-        <v>3284489.197823386</v>
+        <v>1387176.478026763</v>
       </c>
       <c r="H36" t="n">
-        <v>3221236.115877348</v>
+        <v>1599571.677857592</v>
       </c>
       <c r="I36" t="n">
-        <v>3162895.556824949</v>
+        <v>1577818.091840019</v>
       </c>
       <c r="J36" t="n">
-        <v>3004952.43369099</v>
+        <v>1398984.413618742</v>
       </c>
       <c r="K36" t="n">
-        <v>3338764.991995257</v>
+        <v>1396567.936984029</v>
       </c>
       <c r="L36" t="n">
-        <v>3273258.87801208</v>
+        <v>1608388.662760091</v>
       </c>
       <c r="M36" t="n">
-        <v>3212758.812101453</v>
+        <v>1586095.743174558</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5527281.409470704</v>
+        <v>3704359.911325065</v>
       </c>
       <c r="C37" t="n">
-        <v>5146580.831739527</v>
+        <v>3091251.144219948</v>
       </c>
       <c r="D37" t="n">
-        <v>3621223.309844412</v>
+        <v>3632468.03229454</v>
       </c>
       <c r="E37" t="n">
-        <v>5458433.044388774</v>
+        <v>4169613.962933033</v>
       </c>
       <c r="F37" t="n">
-        <v>5527155.651370687</v>
+        <v>3704279.317268963</v>
       </c>
       <c r="G37" t="n">
-        <v>5146477.138898585</v>
+        <v>3091186.650123186</v>
       </c>
       <c r="H37" t="n">
-        <v>3621137.810737307</v>
+        <v>3632416.421931216</v>
       </c>
       <c r="I37" t="n">
-        <v>5458362.54678017</v>
+        <v>4169572.662570115</v>
       </c>
       <c r="J37" t="n">
-        <v>5527097.523128334</v>
+        <v>3704246.267317997</v>
       </c>
       <c r="K37" t="n">
-        <v>5146429.209718772</v>
+        <v>3091160.202431649</v>
       </c>
       <c r="L37" t="n">
-        <v>3621098.291113377</v>
+        <v>3632395.257591566</v>
       </c>
       <c r="M37" t="n">
-        <v>5458329.961188643</v>
+        <v>4169555.726147812</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2982895.602294214</v>
+        <v>3572585.841367675</v>
       </c>
       <c r="C38" t="n">
-        <v>2196931.956059051</v>
+        <v>3543694.543092696</v>
       </c>
       <c r="D38" t="n">
-        <v>2468360.398641216</v>
+        <v>3827150.379891785</v>
       </c>
       <c r="E38" t="n">
-        <v>3083094.769606786</v>
+        <v>3648406.036671926</v>
       </c>
       <c r="F38" t="n">
-        <v>2947506.39672282</v>
+        <v>3671833.399585092</v>
       </c>
       <c r="G38" t="n">
-        <v>2168620.344462015</v>
+        <v>3640727.486580667</v>
       </c>
       <c r="H38" t="n">
-        <v>2445710.911649925</v>
+        <v>3922018.125668602</v>
       </c>
       <c r="I38" t="n">
-        <v>3064975.021841443</v>
+        <v>3741156.899062186</v>
       </c>
       <c r="J38" t="n">
-        <v>2933010.471971592</v>
+        <v>3762514.61482526</v>
       </c>
       <c r="K38" t="n">
-        <v>2157023.503428987</v>
+        <v>3729385.236875582</v>
       </c>
       <c r="L38" t="n">
-        <v>2436433.357837159</v>
+        <v>4008697.562711189</v>
       </c>
       <c r="M38" t="n">
-        <v>3057552.91400159</v>
+        <v>3825902.167028351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3827357.948976262</v>
+        <v>5100677.29389451</v>
       </c>
       <c r="C39" t="n">
-        <v>3966613.632658736</v>
+        <v>5139263.089839566</v>
       </c>
       <c r="D39" t="n">
-        <v>4096916.635948672</v>
+        <v>5564580.894185443</v>
       </c>
       <c r="E39" t="n">
-        <v>4314265.997412388</v>
+        <v>5239025.086169204</v>
       </c>
       <c r="F39" t="n">
-        <v>3854129.290408834</v>
+        <v>5201990.813072819</v>
       </c>
       <c r="G39" t="n">
-        <v>3992846.998346456</v>
+        <v>5235595.74583978</v>
       </c>
       <c r="H39" t="n">
-        <v>4122622.836627446</v>
+        <v>5656177.560526912</v>
       </c>
       <c r="I39" t="n">
-        <v>4339455.626574105</v>
+        <v>5326118.597686749</v>
       </c>
       <c r="J39" t="n">
-        <v>3878812.728666934</v>
+        <v>5284802.557772993</v>
       </c>
       <c r="K39" t="n">
-        <v>4017034.417713764</v>
+        <v>5314336.227659775</v>
       </c>
       <c r="L39" t="n">
-        <v>4146324.204708047</v>
+        <v>5731046.934426625</v>
       </c>
       <c r="M39" t="n">
-        <v>4362680.710670982</v>
+        <v>5397307.178434189</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11666548.90187097</v>
+        <v>5371043.981899974</v>
       </c>
       <c r="C40" t="n">
-        <v>11718007.38835205</v>
+        <v>5042313.059286461</v>
       </c>
       <c r="D40" t="n">
-        <v>10654119.05423578</v>
+        <v>5335868.30942553</v>
       </c>
       <c r="E40" t="n">
-        <v>12737228.96945065</v>
+        <v>5320171.201015416</v>
       </c>
       <c r="F40" t="n">
-        <v>11667760.1653716</v>
+        <v>5592901.049042956</v>
       </c>
       <c r="G40" t="n">
-        <v>11718976.39915255</v>
+        <v>5259732.946508904</v>
       </c>
       <c r="H40" t="n">
-        <v>10654894.26287618</v>
+        <v>5548939.761097404</v>
       </c>
       <c r="I40" t="n">
-        <v>12737849.13636298</v>
+        <v>5528981.186603862</v>
       </c>
       <c r="J40" t="n">
-        <v>11668256.29890146</v>
+        <v>5797534.798610649</v>
       </c>
       <c r="K40" t="n">
-        <v>11719373.30597644</v>
+        <v>5460273.985502445</v>
       </c>
       <c r="L40" t="n">
-        <v>10655211.78833529</v>
+        <v>5745469.944439939</v>
       </c>
       <c r="M40" t="n">
-        <v>12738103.15673026</v>
+        <v>5721580.732105839</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6376124.483588638</v>
+        <v>3174704.971446013</v>
       </c>
       <c r="C41" t="n">
-        <v>8524444.448470552</v>
+        <v>2839647.016454341</v>
       </c>
       <c r="D41" t="n">
-        <v>6506985.449183594</v>
+        <v>2879756.208918693</v>
       </c>
       <c r="E41" t="n">
-        <v>6555366.514819177</v>
+        <v>2975709.78568418</v>
       </c>
       <c r="F41" t="n">
-        <v>6376830.992430461</v>
+        <v>3305270.73122806</v>
       </c>
       <c r="G41" t="n">
-        <v>8525009.694736741</v>
+        <v>2967601.446962469</v>
       </c>
       <c r="H41" t="n">
-        <v>6507437.677552907</v>
+        <v>3005151.537019946</v>
       </c>
       <c r="I41" t="n">
-        <v>6555728.322601454</v>
+        <v>3098597.193702632</v>
       </c>
       <c r="J41" t="n">
-        <v>6377120.458727136</v>
+        <v>3425700.377835784</v>
       </c>
       <c r="K41" t="n">
-        <v>8525241.283831879</v>
+        <v>3085622.487652688</v>
       </c>
       <c r="L41" t="n">
-        <v>6507622.961676145</v>
+        <v>3120812.14417072</v>
       </c>
       <c r="M41" t="n">
-        <v>6555876.56017846</v>
+        <v>3211944.576239263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10691097.819924</v>
+        <v>3842062.925665428</v>
       </c>
       <c r="C42" t="n">
-        <v>11139588.42037413</v>
+        <v>3733190.362817585</v>
       </c>
       <c r="D42" t="n">
-        <v>8672027.76925735</v>
+        <v>4137524.178393318</v>
       </c>
       <c r="E42" t="n">
-        <v>10308408.85613407</v>
+        <v>4238640.546089008</v>
       </c>
       <c r="F42" t="n">
-        <v>11414419.39176652</v>
+        <v>3965351.624703015</v>
       </c>
       <c r="G42" t="n">
-        <v>11848442.59261345</v>
+        <v>3854012.87648748</v>
       </c>
       <c r="H42" t="n">
-        <v>9366703.909250157</v>
+        <v>4255929.838631986</v>
       </c>
       <c r="I42" t="n">
-        <v>10989190.5435026</v>
+        <v>4354677.698029575</v>
       </c>
       <c r="J42" t="n">
-        <v>12081584.53416099</v>
+        <v>4079067.646414629</v>
       </c>
       <c r="K42" t="n">
-        <v>12502263.53915909</v>
+        <v>3965454.198319814</v>
       </c>
       <c r="L42" t="n">
-        <v>10007447.56172517</v>
+        <v>4365141.962172792</v>
       </c>
       <c r="M42" t="n">
-        <v>11617118.46529235</v>
+        <v>4461705.214683025</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5382594.635035561</v>
+        <v>3264230.019586515</v>
       </c>
       <c r="C43" t="n">
-        <v>5416841.850514343</v>
+        <v>2774698.871769979</v>
       </c>
       <c r="D43" t="n">
-        <v>4285144.662586268</v>
+        <v>2858467.328579424</v>
       </c>
       <c r="E43" t="n">
-        <v>4905478.472134955</v>
+        <v>3284681.547576571</v>
       </c>
       <c r="F43" t="n">
-        <v>5382742.881301481</v>
+        <v>3264278.277713376</v>
       </c>
       <c r="G43" t="n">
-        <v>5416960.483339932</v>
+        <v>2774737.484312459</v>
       </c>
       <c r="H43" t="n">
-        <v>4285239.597505673</v>
+        <v>2858498.223446957</v>
       </c>
       <c r="I43" t="n">
-        <v>4905554.443004549</v>
+        <v>3284706.267338043</v>
       </c>
       <c r="J43" t="n">
-        <v>5382803.676349953</v>
+        <v>3264298.056616993</v>
       </c>
       <c r="K43" t="n">
-        <v>5417009.13406538</v>
+        <v>2774753.309911292</v>
       </c>
       <c r="L43" t="n">
-        <v>4285278.529838917</v>
+        <v>2858510.885907084</v>
       </c>
       <c r="M43" t="n">
-        <v>4905585.598276292</v>
+        <v>3284716.398891241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13622432.41546489</v>
+        <v>5225645.614728782</v>
       </c>
       <c r="C44" t="n">
-        <v>14953425.58224343</v>
+        <v>5030469.352604545</v>
       </c>
       <c r="D44" t="n">
-        <v>13249355.18641511</v>
+        <v>5490589.958775737</v>
       </c>
       <c r="E44" t="n">
-        <v>13768950.86664249</v>
+        <v>5338323.896588841</v>
       </c>
       <c r="F44" t="n">
-        <v>13623800.40674313</v>
+        <v>5264285.72950333</v>
       </c>
       <c r="G44" t="n">
-        <v>14954520.54052089</v>
+        <v>5067324.896378895</v>
       </c>
       <c r="H44" t="n">
-        <v>13250231.60547454</v>
+        <v>5525743.350913118</v>
       </c>
       <c r="I44" t="n">
-        <v>13769652.36402695</v>
+        <v>5371853.749962608</v>
       </c>
       <c r="J44" t="n">
-        <v>13624361.89450987</v>
+        <v>5296267.026297471</v>
       </c>
       <c r="K44" t="n">
-        <v>14954969.96274139</v>
+        <v>5097829.155769277</v>
       </c>
       <c r="L44" t="n">
-        <v>13250591.32895249</v>
+        <v>5554838.789004491</v>
       </c>
       <c r="M44" t="n">
-        <v>13769940.29144729</v>
+        <v>5399605.432338999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5366213.78138238</v>
+        <v>3262859.27660967</v>
       </c>
       <c r="C45" t="n">
-        <v>5348796.754685626</v>
+        <v>3071735.097255209</v>
       </c>
       <c r="D45" t="n">
-        <v>4633302.091918591</v>
+        <v>2877460.256033898</v>
       </c>
       <c r="E45" t="n">
-        <v>5280297.846388558</v>
+        <v>3231854.448815526</v>
       </c>
       <c r="F45" t="n">
-        <v>5447519.759668045</v>
+        <v>3316792.050846636</v>
       </c>
       <c r="G45" t="n">
-        <v>5428475.146052516</v>
+        <v>3124020.845509038</v>
       </c>
       <c r="H45" t="n">
-        <v>4711385.477478624</v>
+        <v>2928149.276006268</v>
       </c>
       <c r="I45" t="n">
-        <v>5356818.155043413</v>
+        <v>3280995.50219179</v>
       </c>
       <c r="J45" t="n">
-        <v>5522508.281165137</v>
+        <v>3364432.410203457</v>
       </c>
       <c r="K45" t="n">
-        <v>5501962.543779617</v>
+        <v>3170206.339789536</v>
       </c>
       <c r="L45" t="n">
-        <v>4783401.80100236</v>
+        <v>2972924.334606418</v>
       </c>
       <c r="M45" t="n">
-        <v>5427392.852396761</v>
+        <v>3324403.197700495</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12104327.13010883</v>
+        <v>2060641.733568064</v>
       </c>
       <c r="C46" t="n">
-        <v>11980842.66751065</v>
+        <v>2079065.830427354</v>
       </c>
       <c r="D46" t="n">
-        <v>9162869.04869353</v>
+        <v>2287560.586472714</v>
       </c>
       <c r="E46" t="n">
-        <v>10596397.28491758</v>
+        <v>2105563.274450485</v>
       </c>
       <c r="F46" t="n">
-        <v>12378187.4732207</v>
+        <v>2062247.253693982</v>
       </c>
       <c r="G46" t="n">
-        <v>12249223.12005573</v>
+        <v>2080557.104181489</v>
       </c>
       <c r="H46" t="n">
-        <v>9425879.262183562</v>
+        <v>2288945.743453228</v>
       </c>
       <c r="I46" t="n">
-        <v>10854144.71675952</v>
+        <v>2106849.865765693</v>
       </c>
       <c r="J46" t="n">
-        <v>12630777.43062032</v>
+        <v>2063442.293126807</v>
       </c>
       <c r="K46" t="n">
-        <v>12496758.80304275</v>
+        <v>2081667.106424724</v>
       </c>
       <c r="L46" t="n">
-        <v>9668461.805775778</v>
+        <v>2289976.759624029</v>
       </c>
       <c r="M46" t="n">
-        <v>11091873.2322833</v>
+        <v>2107807.516392915</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2281919.686794587</v>
+        <v>1663004.707832297</v>
       </c>
       <c r="C47" t="n">
-        <v>2364141.853992279</v>
+        <v>1659104.689144465</v>
       </c>
       <c r="D47" t="n">
-        <v>2444724.648537032</v>
+        <v>1655903.383965913</v>
       </c>
       <c r="E47" t="n">
-        <v>2523712.630414449</v>
+        <v>1653493.674647071</v>
       </c>
       <c r="F47" t="n">
-        <v>2601202.21591903</v>
+        <v>1651538.802242426</v>
       </c>
       <c r="G47" t="n">
-        <v>2677038.148844099</v>
+        <v>1649931.928426402</v>
       </c>
       <c r="H47" t="n">
-        <v>2751362.445476552</v>
+        <v>1648565.146394415</v>
       </c>
       <c r="I47" t="n">
-        <v>2824217.110841265</v>
+        <v>1647623.061392144</v>
       </c>
       <c r="J47" t="n">
-        <v>2895696.0573759</v>
+        <v>1646842.293080227</v>
       </c>
       <c r="K47" t="n">
-        <v>2965641.575098654</v>
+        <v>1646174.70624998</v>
       </c>
       <c r="L47" t="n">
-        <v>3034193.275601286</v>
+        <v>1645559.356775899</v>
       </c>
       <c r="M47" t="n">
-        <v>3101390.807311833</v>
+        <v>1645218.420195391</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>658062.5909179562</v>
+        <v>5392727.662706136</v>
       </c>
       <c r="C48" t="n">
-        <v>798680.9293220441</v>
+        <v>5275091.909068983</v>
       </c>
       <c r="D48" t="n">
-        <v>576775.4839123572</v>
+        <v>5391995.024863589</v>
       </c>
       <c r="E48" t="n">
-        <v>549249.7654990406</v>
+        <v>5539261.659754839</v>
       </c>
       <c r="F48" t="n">
-        <v>600169.242992861</v>
+        <v>5751967.242363393</v>
       </c>
       <c r="G48" t="n">
-        <v>748727.1987501895</v>
+        <v>5627146.26804733</v>
       </c>
       <c r="H48" t="n">
-        <v>533672.5146165749</v>
+        <v>5737007.876158832</v>
       </c>
       <c r="I48" t="n">
-        <v>512058.0294496024</v>
+        <v>5877373.841931213</v>
       </c>
       <c r="J48" t="n">
-        <v>568078.0610401962</v>
+        <v>6083316.777045627</v>
       </c>
       <c r="K48" t="n">
-        <v>721037.0700143303</v>
+        <v>5951868.416262802</v>
       </c>
       <c r="L48" t="n">
-        <v>509779.869261866</v>
+        <v>6055235.193552811</v>
       </c>
       <c r="M48" t="n">
-        <v>491442.0724964438</v>
+        <v>6189236.232877736</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>681179.0788341706</v>
+        <v>607728.5150001218</v>
       </c>
       <c r="C49" t="n">
-        <v>614633.1338655031</v>
+        <v>562866.5286839916</v>
       </c>
       <c r="D49" t="n">
-        <v>645298.8334401186</v>
+        <v>584371.7913319401</v>
       </c>
       <c r="E49" t="n">
-        <v>713084.8745534235</v>
+        <v>620691.4593511975</v>
       </c>
       <c r="F49" t="n">
-        <v>681205.2486545244</v>
+        <v>607937.4458018905</v>
       </c>
       <c r="G49" t="n">
-        <v>614654.0784076663</v>
+        <v>563071.1223808875</v>
       </c>
       <c r="H49" t="n">
-        <v>645315.5960254361</v>
+        <v>584572.1379560623</v>
       </c>
       <c r="I49" t="n">
-        <v>713098.2901852542</v>
+        <v>620887.6470657076</v>
       </c>
       <c r="J49" t="n">
-        <v>681215.9856126971</v>
+        <v>608129.5609398087</v>
       </c>
       <c r="K49" t="n">
-        <v>614662.6715378487</v>
+        <v>563259.2494830841</v>
       </c>
       <c r="L49" t="n">
-        <v>645322.4733816802</v>
+        <v>584756.3598084598</v>
       </c>
       <c r="M49" t="n">
-        <v>713103.7943528747</v>
+        <v>621068.0447357108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1711760.385840457</v>
+        <v>2826587.323357142</v>
       </c>
       <c r="C50" t="n">
-        <v>1707809.61185483</v>
+        <v>2910834.10566586</v>
       </c>
       <c r="D50" t="n">
-        <v>1686195.169375228</v>
+        <v>2993767.620889349</v>
       </c>
       <c r="E50" t="n">
-        <v>1701987.855008207</v>
+        <v>3074814.405185045</v>
       </c>
       <c r="F50" t="n">
-        <v>1746378.878660257</v>
+        <v>3154453.680311529</v>
       </c>
       <c r="G50" t="n">
-        <v>1740447.162012493</v>
+        <v>3232143.132655571</v>
       </c>
       <c r="H50" t="n">
-        <v>1716965.130558655</v>
+        <v>3308650.464570188</v>
       </c>
       <c r="I50" t="n">
-        <v>1730997.094569875</v>
+        <v>3383399.589278571</v>
       </c>
       <c r="J50" t="n">
-        <v>1773728.148778917</v>
+        <v>3456867.158063763</v>
       </c>
       <c r="K50" t="n">
-        <v>1766231.44961622</v>
+        <v>3528508.338246526</v>
       </c>
       <c r="L50" t="n">
-        <v>1741273.987224562</v>
+        <v>3599088.363495215</v>
       </c>
       <c r="M50" t="n">
-        <v>1753914.947546282</v>
+        <v>3668028.727722071</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2182742.233919661</v>
+        <v>2925914.154803423</v>
       </c>
       <c r="C51" t="n">
-        <v>2182886.732183774</v>
+        <v>2999492.282597553</v>
       </c>
       <c r="D51" t="n">
-        <v>2182887.791265517</v>
+        <v>3074444.0506212</v>
       </c>
       <c r="E51" t="n">
-        <v>2183283.785054068</v>
+        <v>3146558.337094409</v>
       </c>
       <c r="F51" t="n">
-        <v>2183466.910644442</v>
+        <v>3219126.519837286</v>
       </c>
       <c r="G51" t="n">
-        <v>2183595.485859635</v>
+        <v>3286839.025437386</v>
       </c>
       <c r="H51" t="n">
-        <v>2183580.971763618</v>
+        <v>3356042.511215199</v>
       </c>
       <c r="I51" t="n">
-        <v>2183961.734557983</v>
+        <v>3422523.508041589</v>
       </c>
       <c r="J51" t="n">
-        <v>2184129.963819073</v>
+        <v>3489571.093345474</v>
       </c>
       <c r="K51" t="n">
-        <v>2184243.970016419</v>
+        <v>3551873.43934183</v>
       </c>
       <c r="L51" t="n">
-        <v>2184215.207022101</v>
+        <v>3615774.994076591</v>
       </c>
       <c r="M51" t="n">
-        <v>2184582.034003844</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2541834.201160236</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2538331.44235626</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2164440.951247375</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2554113.63435337</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2555655.347912774</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2551171.305227903</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2176369.200148452</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2565194.992718985</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2565949.943896273</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2560734.997960042</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2185253.88283259</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2573448.874206889</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1195000.428407191</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1194825.078205363</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1194961.422115055</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1195133.551184788</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1195329.265051504</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1195146.893465531</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1195276.365913042</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1195441.770241393</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1195630.902954717</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1195442.090737423</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1195565.260075228</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1195724.495879101</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1531804.982230825</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1350380.940313007</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1438659.839744443</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1573853.013156078</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1568773.342597728</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1385008.06989978</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1471094.010249137</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1604233.106131773</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1597229.444136637</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1411662.02765562</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1496059.955182906</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1627617.941215014</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4098168.099928475</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3615712.818074862</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3058989.229732732</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3655063.057960058</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4098020.823866531</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3615594.99643675</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3058894.971791392</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3654987.651102303</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4097960.497976577</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3615546.735401785</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3058856.362705017</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3654956.763626479</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3710761.479157386</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3747113.539109409</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3713347.136419847</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4022496.114378089</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3853925.576375384</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3887414.35424751</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3850841.935122361</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4157241.016976384</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3985975.580794147</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4016823.358452884</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3977662.759121113</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4281525.424375097</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5155098.100841543</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5136112.486738758</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5296371.700816234</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5625803.851848538</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5312816.029065348</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5288047.720192251</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5442736.260790735</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5766801.985919177</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5448644.496112735</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5418896.064973893</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5568787.078445345</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5888231.176772992</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5180122.011623435</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5357817.658475283</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5040988.215579157</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5311112.261444721</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5398193.970156429</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5571528.161876065</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5250424.493269602</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5516359.798251884</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5599336.541204566</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5768647.866780814</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5443601.789648281</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5705673.534563576</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2946873.817604446</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3247712.306233063</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2910514.881702158</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2943194.613435402</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3084624.185320819</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3382707.458581824</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3042809.927151239</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3072843.558200158</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3211679.955410746</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3507221.921406304</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3164833.912693143</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3192426.879765945</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4244909.644225515</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3941712.231846573</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4011286.952231622</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4174297.778709123</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4245072.130115442</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3941842.543276186</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4011391.460190409</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4174381.59264227</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4245139.347727105</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3941896.450868255</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4011434.693331407</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4174416.265021593</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3373766.451344441</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3284219.314305365</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2901322.737428614</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2952514.26107055</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3373934.611463913</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3284353.843295371</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2901430.361336167</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2952600.360769033</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3374003.491680656</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3284408.947835132</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2901474.445261071</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2952635.628143436</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5387331.812882043</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5263448.995197659</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5197028.382179352</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5399713.90393898</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5401672.599950323</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5277502.672601676</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5210800.697996872</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5413210.491168407</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5414898.978814637</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5290464.25280626</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5223502.780942126</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5425658.272118066</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3302538.385041104</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3358691.197104302</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3146444.603196653</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2931296.763654855</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3351129.070433143</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3406310.037187802</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3193111.03550982</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2977029.836972489</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3395947.452542159</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3450232.022507237</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3236154.552558433</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3019212.455687004</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2134389.756481212</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2051295.481828652</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2034676.089843255</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2243380.048814371</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2142142.645929956</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2058893.266478021</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2042121.872729728</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2250676.870894884</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2149293.487323867</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2065901.047684229</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2048989.455819447</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2257407.060680549</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1667536.703423321</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1662729.900028727</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1658837.999970125</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1655640.43165606</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1653231.47901631</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1651275.495590239</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1649666.289180593</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1648296.507381467</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1647351.090396499</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1646566.981582323</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1645896.112480357</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1645277.67122061</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4948777.648268099</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5136222.822008835</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5042238.083289837</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5182373.234950351</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5230310.248711582</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5412124.69700997</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5312621.848826161</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5447349.254650473</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5489986.678902755</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5666607.53086469</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5562014.959625827</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5691754.438183763</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>698785.6019396783</v>
-      </c>
-      <c r="C67" t="n">
-        <v>677930.3078886131</v>
-      </c>
-      <c r="D67" t="n">
-        <v>630403.6576717728</v>
-      </c>
-      <c r="E67" t="n">
-        <v>646303.3486041932</v>
-      </c>
-      <c r="F67" t="n">
-        <v>699059.6659377584</v>
-      </c>
-      <c r="G67" t="n">
-        <v>678198.6913875254</v>
-      </c>
-      <c r="H67" t="n">
-        <v>630666.4784106988</v>
-      </c>
-      <c r="I67" t="n">
-        <v>646560.7218819452</v>
-      </c>
-      <c r="J67" t="n">
-        <v>699311.7046633607</v>
-      </c>
-      <c r="K67" t="n">
-        <v>678445.5061297477</v>
-      </c>
-      <c r="L67" t="n">
-        <v>630908.177446562</v>
-      </c>
-      <c r="M67" t="n">
-        <v>646797.4112442223</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3064081.407625505</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3310614.535848231</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2833663.46049395</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3482036.732923892</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3396135.525890919</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3636027.571748337</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3152568.235676053</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3794563.412602354</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3702411.671975812</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3936178.194911531</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3446715.846375984</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4082828.071088286</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3058501.001992491</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3162021.645454901</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3263226.948638482</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3362624.378525692</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3459960.651420217</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3555452.094186075</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3648788.780841195</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3740474.966681588</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3830254.22055829</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3918339.784831774</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4004418.71070656</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4088992.291121576</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7470657.186932964</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7464190.358893037</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7472295.710431427</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7473212.40492384</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7473170.825421282</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7466651.355620377</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7474705.167845501</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7475571.402384398</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7475480.419683629</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7468912.581308769</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7476919.037916623</v>
-      </c>
-      <c r="M70" t="n">
-        <v>7477738.908581136</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>22153116.16721546</v>
-      </c>
-      <c r="C71" t="n">
-        <v>23756459.30854274</v>
-      </c>
-      <c r="D71" t="n">
-        <v>21493013.49309351</v>
-      </c>
-      <c r="E71" t="n">
-        <v>23143094.34106747</v>
-      </c>
-      <c r="F71" t="n">
-        <v>26173592.26722033</v>
-      </c>
-      <c r="G71" t="n">
-        <v>27696510.39205141</v>
-      </c>
-      <c r="H71" t="n">
-        <v>25354248.37038554</v>
-      </c>
-      <c r="I71" t="n">
-        <v>26927089.64001663</v>
-      </c>
-      <c r="J71" t="n">
-        <v>29881893.07706678</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31330630.89429587</v>
-      </c>
-      <c r="L71" t="n">
-        <v>28915672.45706323</v>
-      </c>
-      <c r="M71" t="n">
-        <v>30417271.5196033</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4569400.439503789</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2826255.745646239</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5028817.369823225</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2487802.315887474</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4629272.105433416</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2883465.762914874</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5083484.06441169</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2540038.753488882</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4679186.325303983</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2931161.001328686</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5129058.968181582</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2583587.583995061</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9284733.978557715</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9402486.994752334</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9723034.254534822</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9934289.402670639</v>
-      </c>
-      <c r="F73" t="n">
-        <v>10136345.71730216</v>
-      </c>
-      <c r="G73" t="n">
-        <v>10237059.38580213</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10540908.22716167</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10735799.06471325</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10921818.49165192</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11006816.14415784</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11295263.42110815</v>
-      </c>
-      <c r="M73" t="n">
-        <v>11475060.85417723</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16738448.51687041</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18767802.14005642</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15291897.82101065</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15768110.91363134</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16740356.18479561</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18769328.27439658</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15293118.72848277</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15769087.63960904</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16741137.56557776</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18769953.3790223</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15293618.81218335</v>
-      </c>
-      <c r="M74" t="n">
-        <v>15769487.70656951</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>21583478.96862103</v>
-      </c>
-      <c r="C75" t="n">
-        <v>23546376.43746145</v>
-      </c>
-      <c r="D75" t="n">
-        <v>22326473.56660883</v>
-      </c>
-      <c r="E75" t="n">
-        <v>24107730.92734917</v>
-      </c>
-      <c r="F75" t="n">
-        <v>22473293.52765859</v>
-      </c>
-      <c r="G75" t="n">
-        <v>24413488.15522296</v>
-      </c>
-      <c r="H75" t="n">
-        <v>23171461.68625991</v>
-      </c>
-      <c r="I75" t="n">
-        <v>24931159.91317202</v>
-      </c>
-      <c r="J75" t="n">
-        <v>23275713.44212228</v>
-      </c>
-      <c r="K75" t="n">
-        <v>25195435.02643309</v>
-      </c>
-      <c r="L75" t="n">
-        <v>23933457.86603317</v>
-      </c>
-      <c r="M75" t="n">
-        <v>25673714.42597472</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>14755183.80710392</v>
-      </c>
-      <c r="C76" t="n">
-        <v>15511570.23204084</v>
-      </c>
-      <c r="D76" t="n">
-        <v>16116013.12634056</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16600464.20182077</v>
-      </c>
-      <c r="F76" t="n">
-        <v>16988078.36856054</v>
-      </c>
-      <c r="G76" t="n">
-        <v>17297885.88120613</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17545065.64567279</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17743706.21728656</v>
-      </c>
-      <c r="J76" t="n">
-        <v>17902671.98093317</v>
-      </c>
-      <c r="K76" t="n">
-        <v>18029560.77110423</v>
-      </c>
-      <c r="L76" t="n">
-        <v>18130405.55759127</v>
-      </c>
-      <c r="M76" t="n">
-        <v>18211978.14682135</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17433464.54705082</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18287704.95459757</v>
-      </c>
-      <c r="D77" t="n">
-        <v>19125530.370244</v>
-      </c>
-      <c r="E77" t="n">
-        <v>19947269.6844284</v>
-      </c>
-      <c r="F77" t="n">
-        <v>20750647.96484338</v>
-      </c>
-      <c r="G77" t="n">
-        <v>21538520.0978207</v>
-      </c>
-      <c r="H77" t="n">
-        <v>22311305.09669587</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23069305.28490146</v>
-      </c>
-      <c r="J77" t="n">
-        <v>23810219.69466149</v>
-      </c>
-      <c r="K77" t="n">
-        <v>24536877.69774165</v>
-      </c>
-      <c r="L77" t="n">
-        <v>25249673.30339199</v>
-      </c>
-      <c r="M77" t="n">
-        <v>25948884.33122673</v>
+        <v>3677060.123341918</v>
       </c>
     </row>
   </sheetData>
